--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <sheet name="optimization_parameters" sheetId="6" r:id="rId7"/>
     <sheet name="threshold_b" sheetId="16" r:id="rId8"/>
     <sheet name="wt_log2_optimized_expression" sheetId="19" r:id="rId9"/>
-    <sheet name="wt_sigmas" sheetId="20" r:id="rId10"/>
-    <sheet name="dcin5_log2_optimized_expression" sheetId="21" r:id="rId11"/>
+    <sheet name="dcin5_log2_optimized_expression" sheetId="20" r:id="rId10"/>
+    <sheet name="wt_sigmas" sheetId="21" r:id="rId11"/>
     <sheet name="dcin5_sigmas" sheetId="22" r:id="rId12"/>
     <sheet name="optimized_threshold_b" sheetId="23" r:id="rId13"/>
     <sheet name="network_optimized_weights" sheetId="24" r:id="rId14"/>
+    <sheet name="optimization_diagnostics" sheetId="25" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="44">
   <si>
     <t>CIN5</t>
   </si>
@@ -131,10 +132,37 @@
     <t>makeGraphs</t>
   </si>
   <si>
-    <t>StandardDeviation</t>
-  </si>
-  <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>LSE</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>min LSE</t>
+  </si>
+  <si>
+    <t>iteration count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>wt SSE</t>
+  </si>
+  <si>
+    <t>dcin5 SSE</t>
   </si>
 </sst>
 </file>
@@ -811,76 +839,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -971,64 +929,64 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-9.8096875135555359E-2</v>
+        <v>-9.9586722775879516E-2</v>
       </c>
       <c r="E2">
-        <v>-0.19358272524377304</v>
+        <v>-0.19633754171004664</v>
       </c>
       <c r="F2">
-        <v>-0.28635902448712119</v>
+        <v>-0.29014543718236008</v>
       </c>
       <c r="G2">
-        <v>-0.37633437931562669</v>
+        <v>-0.38091295665354752</v>
       </c>
       <c r="H2">
-        <v>-0.46342346183082045</v>
+        <v>-0.4685509223147255</v>
       </c>
       <c r="I2">
-        <v>-0.54755090332054468</v>
+        <v>-0.55298282471572291</v>
       </c>
       <c r="J2">
-        <v>-0.62865006968283277</v>
+        <v>-0.63414330106467476</v>
       </c>
       <c r="K2">
-        <v>-0.70666657067533889</v>
+        <v>-0.71198201559257546</v>
       </c>
       <c r="L2">
-        <v>-0.78155692815914013</v>
+        <v>-0.78646195687952403</v>
       </c>
       <c r="M2">
-        <v>-0.85329156101270598</v>
+        <v>-0.85756263699544744</v>
       </c>
       <c r="N2">
-        <v>-0.92185322911972012</v>
+        <v>-0.92527807909141258</v>
       </c>
       <c r="O2">
-        <v>-0.98723939041144815</v>
+        <v>-0.98961923024729015</v>
       </c>
       <c r="P2">
-        <v>-1.0494603490324432</v>
+        <v>-1.0506115812927099</v>
       </c>
       <c r="Q2">
-        <v>-1.1085409418833476</v>
+        <v>-1.108296777124018</v>
       </c>
       <c r="R2">
-        <v>-1.1645183827047711</v>
+        <v>-1.1627298969014901</v>
       </c>
       <c r="S2">
-        <v>-1.2174433075330109</v>
+        <v>-1.2139803387799586</v>
       </c>
       <c r="T2">
-        <v>-1.267377372095267</v>
+        <v>-1.2621288673113933</v>
       </c>
       <c r="U2">
-        <v>-1.3143937515676742</v>
+        <v>-1.3072679238492553</v>
       </c>
       <c r="V2">
-        <v>-1.3585746003098977</v>
+        <v>-1.3494985991140291</v>
       </c>
       <c r="W2">
-        <v>-1.400011079104291</v>
+        <v>-1.3889304867107377</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1042,64 +1000,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-6.1587409075629193E-2</v>
+        <v>-6.2413587197453248E-2</v>
       </c>
       <c r="E3">
-        <v>-0.12004085195748146</v>
+        <v>-0.12151927115115595</v>
       </c>
       <c r="F3">
-        <v>-0.17540025527632683</v>
+        <v>-0.17736485899855842</v>
       </c>
       <c r="G3">
-        <v>-0.2277186921096738</v>
+        <v>-0.23001268784032192</v>
       </c>
       <c r="H3">
-        <v>-0.27706007684151002</v>
+        <v>-0.2795368984816623</v>
       </c>
       <c r="I3">
-        <v>-0.32349961733224813</v>
+        <v>-0.32602386241431802</v>
       </c>
       <c r="J3">
-        <v>-0.36712126811744367</v>
+        <v>-0.36956920635579382</v>
       </c>
       <c r="K3">
-        <v>-0.40801779272221417</v>
+        <v>-0.41027781486310122</v>
       </c>
       <c r="L3">
-        <v>-0.44628822842063021</v>
+        <v>-0.44826090813062336</v>
       </c>
       <c r="M3">
-        <v>-0.48203771530596712</v>
+        <v>-0.48363581026642022</v>
       </c>
       <c r="N3">
-        <v>-0.5153751042765462</v>
+        <v>-0.51652323549784629</v>
       </c>
       <c r="O3">
-        <v>-0.54641269580515672</v>
+        <v>-0.54704698849340705</v>
       </c>
       <c r="P3">
-        <v>-0.57526409596536277</v>
+        <v>-0.57533157523989009</v>
       </c>
       <c r="Q3">
-        <v>-0.60204397573805202</v>
+        <v>-0.60150195763077663</v>
       </c>
       <c r="R3">
-        <v>-0.62686624112527234</v>
+        <v>-0.62568155471049858</v>
       </c>
       <c r="S3">
-        <v>-0.64984388416833161</v>
+        <v>-0.64799212351358126</v>
       </c>
       <c r="T3">
-        <v>-0.67108749299439852</v>
+        <v>-0.66855216736124456</v>
       </c>
       <c r="U3">
-        <v>-0.69070522797015965</v>
+        <v>-0.68747697007172992</v>
       </c>
       <c r="V3">
-        <v>-0.70880166360183183</v>
+        <v>-0.7048773892850273</v>
       </c>
       <c r="W3">
-        <v>-0.7254778666163344</v>
+        <v>-0.72086000898109037</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1184,64 +1142,179 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-3.7774068407270683E-2</v>
+        <v>-3.9440636416406563E-2</v>
       </c>
       <c r="E5">
-        <v>-7.3540342121730357E-2</v>
+        <v>-7.6586814094669872E-2</v>
       </c>
       <c r="F5">
-        <v>-0.10736636389378536</v>
+        <v>-0.11152059199862549</v>
       </c>
       <c r="G5">
-        <v>-0.13932150116618922</v>
+        <v>-0.14432735392047477</v>
       </c>
       <c r="H5">
-        <v>-0.16947610623750209</v>
+        <v>-0.1750944066823639</v>
       </c>
       <c r="I5">
-        <v>-0.19790156602627409</v>
+        <v>-0.20391088537489302</v>
       </c>
       <c r="J5">
-        <v>-0.22466949108967477</v>
+        <v>-0.23086644134415116</v>
       </c>
       <c r="K5">
-        <v>-0.24985172908526551</v>
+        <v>-0.25605114394250705</v>
       </c>
       <c r="L5">
-        <v>-0.27351963998967782</v>
+        <v>-0.27955434478575264</v>
       </c>
       <c r="M5">
-        <v>-0.29574410329059608</v>
+        <v>-0.30146461729766305</v>
       </c>
       <c r="N5">
-        <v>-0.31659489184278056</v>
+        <v>-0.32186881181168131</v>
       </c>
       <c r="O5">
-        <v>-0.33614069298912791</v>
+        <v>-0.34085205524821444</v>
       </c>
       <c r="P5">
-        <v>-0.35444858544459401</v>
+        <v>-0.35849699526816176</v>
       </c>
       <c r="Q5">
-        <v>-0.37158408563883194</v>
+        <v>-0.37488386688012326</v>
       </c>
       <c r="R5">
-        <v>-0.38761072515879036</v>
+        <v>-0.3900899116602588</v>
       </c>
       <c r="S5">
-        <v>-0.40259012642481989</v>
+        <v>-0.4041895070119863</v>
       </c>
       <c r="T5">
-        <v>-0.41658167313030137</v>
+        <v>-0.41725373888115302</v>
       </c>
       <c r="U5">
-        <v>-0.4296426141914918</v>
+        <v>-0.42935058273298954</v>
       </c>
       <c r="V5">
-        <v>-0.44182781640903324</v>
+        <v>-0.44054460473448531</v>
       </c>
       <c r="W5">
-        <v>-0.4531898839324926</v>
+        <v>-0.45089716923502737</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1251,26 +1324,35 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1278,10 +1360,19 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1289,10 +1380,19 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1302,8 +1402,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1311,6 +1420,15 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1337,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1348,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>-1.5933065097712695E-6</v>
+        <v>-0.15315489654471839</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1359,7 +1477,7 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>-8.3033362099143523E-7</v>
+        <v>-8.5865772068814517E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1370,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-1.6947296151705073E-4</v>
+        <v>-0.45176860342189396</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1381,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>4.9187413846701511E-7</v>
+        <v>-0.27377176566628469</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
@@ -1421,7 +1539,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.49999704241722182</v>
+        <v>0.25352994651756744</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1441,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.24999879855017881</v>
+        <v>0.13839383724466231</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1461,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.49990877121920507</v>
+        <v>0.42259190853563411</v>
       </c>
       <c r="E4">
-        <v>0.99992645334370911</v>
+        <v>0.50150779523599143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1478,10 +1596,125 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.99999990014823825</v>
+        <v>-1.0320209241203737</v>
       </c>
       <c r="E5">
-        <v>1.0000005519364217</v>
+        <v>0.66317549570851264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>2.4245379460230896E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>0.23282684076036597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>1.2133358649639586E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1.8929100349110884E-4</v>
+      </c>
+      <c r="C8">
+        <v>3.7858200698221773E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>4.1799260893231075E-5</v>
+      </c>
+      <c r="C9">
+        <v>8.3598521786462163E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>8.7220400150689326E-4</v>
+      </c>
+      <c r="C10">
+        <v>8.7220400150689326E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>7.7282870315040447E-4</v>
+      </c>
+      <c r="C11">
+        <v>9.9317189790659299E-4</v>
       </c>
     </row>
   </sheetData>
@@ -2473,7 +2706,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2506,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1E-10</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2522,7 +2755,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2530,7 +2763,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2538,7 +2771,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2546,7 +2779,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2866,64 +3099,64 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-9.8096875135555359E-2</v>
+        <v>-9.9586722775879516E-2</v>
       </c>
       <c r="E2">
-        <v>-0.19358272524377304</v>
+        <v>-0.19633754171004664</v>
       </c>
       <c r="F2">
-        <v>-0.28635902448712119</v>
+        <v>-0.29014543718236008</v>
       </c>
       <c r="G2">
-        <v>-0.37633437931562669</v>
+        <v>-0.38091295665354752</v>
       </c>
       <c r="H2">
-        <v>-0.46342346183082045</v>
+        <v>-0.4685509223147255</v>
       </c>
       <c r="I2">
-        <v>-0.54755090332054468</v>
+        <v>-0.55298282471572291</v>
       </c>
       <c r="J2">
-        <v>-0.62865006968283277</v>
+        <v>-0.63414330106467476</v>
       </c>
       <c r="K2">
-        <v>-0.70666657067533889</v>
+        <v>-0.71198201559257546</v>
       </c>
       <c r="L2">
-        <v>-0.78155692815914013</v>
+        <v>-0.78646195687952403</v>
       </c>
       <c r="M2">
-        <v>-0.85329156101270598</v>
+        <v>-0.85756263699544744</v>
       </c>
       <c r="N2">
-        <v>-0.92185322911972012</v>
+        <v>-0.92527807909141258</v>
       </c>
       <c r="O2">
-        <v>-0.98723939041144815</v>
+        <v>-0.98961923024729015</v>
       </c>
       <c r="P2">
-        <v>-1.0494603490324432</v>
+        <v>-1.0506115812927099</v>
       </c>
       <c r="Q2">
-        <v>-1.1085409418833476</v>
+        <v>-1.108296777124018</v>
       </c>
       <c r="R2">
-        <v>-1.1645183827047711</v>
+        <v>-1.1627298969014901</v>
       </c>
       <c r="S2">
-        <v>-1.2174433075330109</v>
+        <v>-1.2139803387799586</v>
       </c>
       <c r="T2">
-        <v>-1.267377372095267</v>
+        <v>-1.2621288673113933</v>
       </c>
       <c r="U2">
-        <v>-1.3143937515676742</v>
+        <v>-1.3072679238492553</v>
       </c>
       <c r="V2">
-        <v>-1.3585746003098977</v>
+        <v>-1.3494985991140291</v>
       </c>
       <c r="W2">
-        <v>-1.400011079104291</v>
+        <v>-1.3889304867107377</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -2937,64 +3170,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-6.1587409075629193E-2</v>
+        <v>-6.2413587197453248E-2</v>
       </c>
       <c r="E3">
-        <v>-0.12004085195748146</v>
+        <v>-0.12151927115115595</v>
       </c>
       <c r="F3">
-        <v>-0.17540025527632683</v>
+        <v>-0.17736485899855842</v>
       </c>
       <c r="G3">
-        <v>-0.2277186921096738</v>
+        <v>-0.23001268784032192</v>
       </c>
       <c r="H3">
-        <v>-0.27706007684151002</v>
+        <v>-0.2795368984816623</v>
       </c>
       <c r="I3">
-        <v>-0.32349961733224813</v>
+        <v>-0.32602386241431802</v>
       </c>
       <c r="J3">
-        <v>-0.36712126811744367</v>
+        <v>-0.36956920635579382</v>
       </c>
       <c r="K3">
-        <v>-0.40801779272221417</v>
+        <v>-0.41027781486310122</v>
       </c>
       <c r="L3">
-        <v>-0.44628822842063021</v>
+        <v>-0.44826090813062336</v>
       </c>
       <c r="M3">
-        <v>-0.48203771530596712</v>
+        <v>-0.48363581026642022</v>
       </c>
       <c r="N3">
-        <v>-0.5153751042765462</v>
+        <v>-0.51652323549784629</v>
       </c>
       <c r="O3">
-        <v>-0.54641269580515672</v>
+        <v>-0.54704698849340705</v>
       </c>
       <c r="P3">
-        <v>-0.57526409596536277</v>
+        <v>-0.57533157523989009</v>
       </c>
       <c r="Q3">
-        <v>-0.60204397573805202</v>
+        <v>-0.60150195763077663</v>
       </c>
       <c r="R3">
-        <v>-0.62686624112527234</v>
+        <v>-0.62568155471049858</v>
       </c>
       <c r="S3">
-        <v>-0.64984388416833161</v>
+        <v>-0.64799212351358126</v>
       </c>
       <c r="T3">
-        <v>-0.67108749299439852</v>
+        <v>-0.66855216736124456</v>
       </c>
       <c r="U3">
-        <v>-0.69070522797015965</v>
+        <v>-0.68747697007172992</v>
       </c>
       <c r="V3">
-        <v>-0.70880166360183183</v>
+        <v>-0.7048773892850273</v>
       </c>
       <c r="W3">
-        <v>-0.7254778666163344</v>
+        <v>-0.72086000898109037</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -3008,64 +3241,64 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.4298850578677365E-2</v>
+        <v>7.9643793708530364E-2</v>
       </c>
       <c r="E4">
-        <v>0.15583034785744443</v>
+        <v>0.14802283055694987</v>
       </c>
       <c r="F4">
-        <v>0.21690507197523423</v>
+        <v>0.20710872352492637</v>
       </c>
       <c r="G4">
-        <v>0.26929399564372902</v>
+        <v>0.25843091292746978</v>
       </c>
       <c r="H4">
-        <v>0.31438385339618224</v>
+        <v>0.30319825247206722</v>
       </c>
       <c r="I4">
-        <v>0.35328208255910809</v>
+        <v>0.34238334515746471</v>
       </c>
       <c r="J4">
-        <v>0.38688636043129432</v>
+        <v>0.37677892116112621</v>
       </c>
       <c r="K4">
-        <v>0.41593532920294074</v>
+        <v>0.40703998398771801</v>
       </c>
       <c r="L4">
-        <v>0.44104322171558186</v>
+        <v>0.43371267977415151</v>
       </c>
       <c r="M4">
-        <v>0.462726931329419</v>
+        <v>0.45725738321432507</v>
       </c>
       <c r="N4">
-        <v>0.48142465540256629</v>
+        <v>0.47806461748314122</v>
       </c>
       <c r="O4">
-        <v>0.49751151179222175</v>
+        <v>0.49646864821739645</v>
       </c>
       <c r="P4">
-        <v>0.51131019620642459</v>
+        <v>0.51275678669723779</v>
       </c>
       <c r="Q4">
-        <v>0.52310058261136394</v>
+        <v>0.52717787767834501</v>
       </c>
       <c r="R4">
-        <v>0.53312611140030797</v>
+        <v>0.5399479965959415</v>
       </c>
       <c r="S4">
-        <v>0.54160001400590274</v>
+        <v>0.55125601182804185</v>
       </c>
       <c r="T4">
-        <v>0.5487092944557781</v>
+        <v>0.56126721207657515</v>
       </c>
       <c r="U4">
-        <v>0.55461895225375579</v>
+        <v>0.57012710158202418</v>
       </c>
       <c r="V4">
-        <v>0.55947454842127509</v>
+        <v>0.57796378759864597</v>
       </c>
       <c r="W4">
-        <v>0.56340516181150135</v>
+        <v>0.58489064211086061</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -3079,64 +3312,64 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-7.2357193535470501E-2</v>
+        <v>-7.5473425669918368E-2</v>
       </c>
       <c r="E5">
-        <v>-0.14506742284480759</v>
+        <v>-0.15068226240200472</v>
       </c>
       <c r="F5">
-        <v>-0.21798104008485442</v>
+        <v>-0.22548770547612343</v>
       </c>
       <c r="G5">
-        <v>-0.29093615742197954</v>
+        <v>-0.29974610714086253</v>
       </c>
       <c r="H5">
-        <v>-0.36376444067102615</v>
+        <v>-0.37331279696288466</v>
       </c>
       <c r="I5">
-        <v>-0.4362939050993101</v>
+        <v>-0.44604380509486202</v>
       </c>
       <c r="J5">
-        <v>-0.50835293207044852</v>
+        <v>-0.51779846562317167</v>
       </c>
       <c r="K5">
-        <v>-0.57977180532547601</v>
+        <v>-0.58844044202043222</v>
       </c>
       <c r="L5">
-        <v>-0.65038541565365859</v>
+        <v>-0.65783947259958364</v>
       </c>
       <c r="M5">
-        <v>-0.72003407348042603</v>
+        <v>-0.72587204261678895</v>
       </c>
       <c r="N5">
-        <v>-0.78856536956850354</v>
+        <v>-0.79242256435097747</v>
       </c>
       <c r="O5">
-        <v>-0.85583464432183731</v>
+        <v>-0.85738388720255121</v>
       </c>
       <c r="P5">
-        <v>-0.92170631592289209</v>
+        <v>-0.92065807944774458</v>
       </c>
       <c r="Q5">
-        <v>-0.98605421746060173</v>
+        <v>-0.98215685152812104</v>
       </c>
       <c r="R5">
-        <v>-1.0487625619737826</v>
+        <v>-1.0418020182973311</v>
       </c>
       <c r="S5">
-        <v>-1.1097262274746402</v>
+        <v>-1.0995258394240877</v>
       </c>
       <c r="T5">
-        <v>-1.1688514274983386</v>
+        <v>-1.1552711904652875</v>
       </c>
       <c r="U5">
-        <v>-1.2260559410176748</v>
+        <v>-1.2089917912513419</v>
       </c>
       <c r="V5">
-        <v>-1.2812694984377644</v>
+        <v>-1.2606520941371557</v>
       </c>
       <c r="W5">
-        <v>-1.3344339092498831</v>
+        <v>-1.3102273521181622</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -45,33 +45,12 @@
     <t>kk_max</t>
   </si>
   <si>
-    <t>SystematicName</t>
-  </si>
-  <si>
-    <t>StandardName</t>
-  </si>
-  <si>
-    <t>DegradationRate</t>
-  </si>
-  <si>
-    <t>YOR028C</t>
-  </si>
-  <si>
-    <t>YPR104C</t>
-  </si>
-  <si>
-    <t>rows genes affected/cols genes controlling</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>optimization_parameter</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>MaxIter</t>
   </si>
   <si>
@@ -84,21 +63,12 @@
     <t>TolX</t>
   </si>
   <si>
-    <t>YLR131C</t>
-  </si>
-  <si>
     <t>ACE2</t>
   </si>
   <si>
-    <t>production_rates</t>
-  </si>
-  <si>
     <t>AFT2</t>
   </si>
   <si>
-    <t>YPL202C</t>
-  </si>
-  <si>
     <t>Strain</t>
   </si>
   <si>
@@ -123,18 +93,6 @@
     <t>dcin5</t>
   </si>
   <si>
-    <t>simtime</t>
-  </si>
-  <si>
-    <t>estimateParams</t>
-  </si>
-  <si>
-    <t>makeGraphs</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -163,16 +121,50 @@
   </si>
   <si>
     <t>dcin5 SSE</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>production_rate</t>
+  </si>
+  <si>
+    <t>degradation_rate</t>
+  </si>
+  <si>
+    <t>regulators/controllers</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
+  </si>
+  <si>
+    <t>make_graphs</t>
+  </si>
+  <si>
+    <t>expression_timepoints</t>
+  </si>
+  <si>
+    <t>simulation_timepoints</t>
+  </si>
+  <si>
+    <t>threshold_b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -212,38 +204,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -645,192 +645,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="4"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="H22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
@@ -839,232 +806,223 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-9.9586722775879516E-2</v>
       </c>
       <c r="D2">
-        <v>-9.9586722775879516E-2</v>
+        <v>-0.19633754171004664</v>
       </c>
       <c r="E2">
-        <v>-0.19633754171004664</v>
+        <v>-0.29014543718236008</v>
       </c>
       <c r="F2">
-        <v>-0.29014543718236008</v>
+        <v>-0.38091295665354752</v>
       </c>
       <c r="G2">
-        <v>-0.38091295665354752</v>
+        <v>-0.4685509223147255</v>
       </c>
       <c r="H2">
-        <v>-0.4685509223147255</v>
+        <v>-0.55298282471572291</v>
       </c>
       <c r="I2">
-        <v>-0.55298282471572291</v>
+        <v>-0.63414330106467476</v>
       </c>
       <c r="J2">
-        <v>-0.63414330106467476</v>
+        <v>-0.71198201559257546</v>
       </c>
       <c r="K2">
-        <v>-0.71198201559257546</v>
+        <v>-0.78646195687952403</v>
       </c>
       <c r="L2">
-        <v>-0.78646195687952403</v>
+        <v>-0.85756263699544744</v>
       </c>
       <c r="M2">
-        <v>-0.85756263699544744</v>
+        <v>-0.92527807909141258</v>
       </c>
       <c r="N2">
-        <v>-0.92527807909141258</v>
+        <v>-0.98961923024729015</v>
       </c>
       <c r="O2">
-        <v>-0.98961923024729015</v>
+        <v>-1.0506115812927099</v>
       </c>
       <c r="P2">
-        <v>-1.0506115812927099</v>
+        <v>-1.108296777124018</v>
       </c>
       <c r="Q2">
-        <v>-1.108296777124018</v>
+        <v>-1.1627298969014901</v>
       </c>
       <c r="R2">
-        <v>-1.1627298969014901</v>
+        <v>-1.2139803387799586</v>
       </c>
       <c r="S2">
-        <v>-1.2139803387799586</v>
+        <v>-1.2621288673113933</v>
       </c>
       <c r="T2">
-        <v>-1.2621288673113933</v>
+        <v>-1.3072679238492553</v>
       </c>
       <c r="U2">
-        <v>-1.3072679238492553</v>
+        <v>-1.3494985991140291</v>
       </c>
       <c r="V2">
-        <v>-1.3494985991140291</v>
-      </c>
-      <c r="W2">
         <v>-1.3889304867107377</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-6.2413587197453248E-2</v>
       </c>
       <c r="D3">
-        <v>-6.2413587197453248E-2</v>
+        <v>-0.12151927115115595</v>
       </c>
       <c r="E3">
-        <v>-0.12151927115115595</v>
+        <v>-0.17736485899855842</v>
       </c>
       <c r="F3">
-        <v>-0.17736485899855842</v>
+        <v>-0.23001268784032192</v>
       </c>
       <c r="G3">
-        <v>-0.23001268784032192</v>
+        <v>-0.2795368984816623</v>
       </c>
       <c r="H3">
-        <v>-0.2795368984816623</v>
+        <v>-0.32602386241431802</v>
       </c>
       <c r="I3">
-        <v>-0.32602386241431802</v>
+        <v>-0.36956920635579382</v>
       </c>
       <c r="J3">
-        <v>-0.36956920635579382</v>
+        <v>-0.41027781486310122</v>
       </c>
       <c r="K3">
-        <v>-0.41027781486310122</v>
+        <v>-0.44826090813062336</v>
       </c>
       <c r="L3">
-        <v>-0.44826090813062336</v>
+        <v>-0.48363581026642022</v>
       </c>
       <c r="M3">
-        <v>-0.48363581026642022</v>
+        <v>-0.51652323549784629</v>
       </c>
       <c r="N3">
-        <v>-0.51652323549784629</v>
+        <v>-0.54704698849340705</v>
       </c>
       <c r="O3">
-        <v>-0.54704698849340705</v>
+        <v>-0.57533157523989009</v>
       </c>
       <c r="P3">
-        <v>-0.57533157523989009</v>
+        <v>-0.60150195763077663</v>
       </c>
       <c r="Q3">
-        <v>-0.60150195763077663</v>
+        <v>-0.62568155471049858</v>
       </c>
       <c r="R3">
-        <v>-0.62568155471049858</v>
+        <v>-0.64799212351358126</v>
       </c>
       <c r="S3">
-        <v>-0.64799212351358126</v>
+        <v>-0.66855216736124456</v>
       </c>
       <c r="T3">
-        <v>-0.66855216736124456</v>
+        <v>-0.68747697007172992</v>
       </c>
       <c r="U3">
-        <v>-0.68747697007172992</v>
+        <v>-0.7048773892850273</v>
       </c>
       <c r="V3">
-        <v>-0.7048773892850273</v>
-      </c>
-      <c r="W3">
         <v>-0.72086000898109037</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1127,78 +1085,72 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-3.9440636416406563E-2</v>
       </c>
       <c r="D5">
-        <v>-3.9440636416406563E-2</v>
+        <v>-7.6586814094669872E-2</v>
       </c>
       <c r="E5">
-        <v>-7.6586814094669872E-2</v>
+        <v>-0.11152059199862549</v>
       </c>
       <c r="F5">
-        <v>-0.11152059199862549</v>
+        <v>-0.14432735392047477</v>
       </c>
       <c r="G5">
-        <v>-0.14432735392047477</v>
+        <v>-0.1750944066823639</v>
       </c>
       <c r="H5">
-        <v>-0.1750944066823639</v>
+        <v>-0.20391088537489302</v>
       </c>
       <c r="I5">
-        <v>-0.20391088537489302</v>
+        <v>-0.23086644134415116</v>
       </c>
       <c r="J5">
-        <v>-0.23086644134415116</v>
+        <v>-0.25605114394250705</v>
       </c>
       <c r="K5">
-        <v>-0.25605114394250705</v>
+        <v>-0.27955434478575264</v>
       </c>
       <c r="L5">
-        <v>-0.27955434478575264</v>
+        <v>-0.30146461729766305</v>
       </c>
       <c r="M5">
-        <v>-0.30146461729766305</v>
+        <v>-0.32186881181168131</v>
       </c>
       <c r="N5">
-        <v>-0.32186881181168131</v>
+        <v>-0.34085205524821444</v>
       </c>
       <c r="O5">
-        <v>-0.34085205524821444</v>
+        <v>-0.35849699526816176</v>
       </c>
       <c r="P5">
-        <v>-0.35849699526816176</v>
+        <v>-0.37488386688012326</v>
       </c>
       <c r="Q5">
-        <v>-0.37488386688012326</v>
+        <v>-0.3900899116602588</v>
       </c>
       <c r="R5">
-        <v>-0.3900899116602588</v>
+        <v>-0.4041895070119863</v>
       </c>
       <c r="S5">
-        <v>-0.4041895070119863</v>
+        <v>-0.41725373888115302</v>
       </c>
       <c r="T5">
-        <v>-0.41725373888115302</v>
+        <v>-0.42935058273298954</v>
       </c>
       <c r="U5">
-        <v>-0.42935058273298954</v>
+        <v>-0.44054460473448531</v>
       </c>
       <c r="V5">
-        <v>-0.44054460473448531</v>
-      </c>
-      <c r="W5">
         <v>-0.45089716923502737</v>
       </c>
     </row>
@@ -1209,63 +1161,57 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1273,15 +1219,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1293,16 +1236,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1311,9 +1251,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1324,63 +1261,57 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1388,15 +1319,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1408,16 +1336,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1426,9 +1351,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1439,66 +1361,51 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>-0.15315489654471839</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>-8.5865772068814517E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>-0.45176860342189396</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>-0.27377176566628469</v>
       </c>
     </row>
@@ -1511,21 +1418,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>9</v>
+      <c r="A1" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1536,7 +1441,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.25352994651756744</v>
@@ -1553,7 +1458,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1611,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -1619,15 +1524,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>2.4245379460230896E-5</v>
@@ -1635,7 +1540,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0.23282684076036597</v>
@@ -1643,7 +1548,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1651,7 +1556,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>541</v>
@@ -1659,23 +1564,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1.8929100349110884E-4</v>
@@ -1686,7 +1591,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>4.1799260893231075E-5</v>
@@ -1724,159 +1629,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1888,20 +1760,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1" s="10">
+        <v>0.4</v>
       </c>
       <c r="C1" s="11">
         <v>0.4</v>
@@ -1910,7 +1782,7 @@
         <v>0.4</v>
       </c>
       <c r="E1" s="13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F1" s="14">
         <v>0.8</v>
@@ -1919,16 +1791,16 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="16">
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I1" s="17">
         <v>1.2000000000000002</v>
       </c>
       <c r="J1" s="18">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="K1" s="19">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="L1" s="20">
         <v>1.6</v>
@@ -1936,17 +1808,14 @@
       <c r="M1" s="21">
         <v>1.6</v>
       </c>
-      <c r="N1" s="22">
-        <v>1.6</v>
-      </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="10">
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="11">
         <v>-0.37633430629205178</v>
@@ -1955,7 +1824,7 @@
         <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="13">
-        <v>-0.37633430629205178</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="14">
         <v>-0.70666646734338179</v>
@@ -1964,7 +1833,7 @@
         <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="16">
-        <v>-0.70666646734338179</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="17">
         <v>-0.98723929967009216</v>
@@ -1973,7 +1842,7 @@
         <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="19">
-        <v>-0.98723929967009216</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="20">
         <v>-1.2174432654761544</v>
@@ -1981,16 +1850,13 @@
       <c r="M2" s="21">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="22">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="10">
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="11">
         <v>-0.22771865423983556</v>
@@ -1999,7 +1865,7 @@
         <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="13">
-        <v>-0.22771865423983556</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="14">
         <v>-0.40801774302656463</v>
@@ -2008,7 +1874,7 @@
         <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="16">
-        <v>-0.40801774302656463</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="17">
         <v>-0.5464126532391167</v>
@@ -2017,7 +1883,7 @@
         <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="19">
-        <v>-0.5464126532391167</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="20">
         <v>-0.64984386018298912</v>
@@ -2025,16 +1891,13 @@
       <c r="M3" s="21">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="22">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="11">
         <v>0.26929382132237512</v>
@@ -2043,7 +1906,7 @@
         <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="13">
-        <v>0.26929382132237512</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="14">
         <v>0.41593537248224854</v>
@@ -2052,7 +1915,7 @@
         <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="16">
-        <v>0.41593537248224854</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="17">
         <v>0.49751163358969142</v>
@@ -2061,7 +1924,7 @@
         <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="19">
-        <v>0.49751163358969142</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="20">
         <v>0.54159993841241572</v>
@@ -2069,16 +1932,13 @@
       <c r="M4" s="21">
         <v>0.54159993841241572</v>
       </c>
-      <c r="N4" s="22">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="11">
         <v>-0.29093615522070321</v>
@@ -2087,7 +1947,7 @@
         <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="13">
-        <v>-0.29093615522070321</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="14">
         <v>-0.57977180156386388</v>
@@ -2096,7 +1956,7 @@
         <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="16">
-        <v>-0.57977180156386388</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="17">
         <v>-0.85583465653557034</v>
@@ -2105,7 +1965,7 @@
         <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="19">
-        <v>-0.85583465653557034</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="20">
         <v>-1.1097262320569594</v>
@@ -2113,40 +1973,37 @@
       <c r="M5" s="21">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="N5" s="22">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-      <c r="M20" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2155,285 +2012,270 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="10">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="D1" s="10">
+      <c r="C1" s="9">
         <v>0.4</v>
       </c>
-      <c r="E1" s="10">
+      <c r="D1" s="9">
         <v>0.4</v>
       </c>
-      <c r="F1" s="10">
+      <c r="E1" s="9">
         <v>0.8</v>
       </c>
-      <c r="G1" s="10">
+      <c r="F1" s="9">
         <v>0.8</v>
       </c>
-      <c r="H1" s="10">
+      <c r="G1" s="9">
         <v>0.8</v>
       </c>
-      <c r="I1" s="10">
+      <c r="H1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="10">
+      <c r="I1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="K1" s="10">
+      <c r="J1" s="9">
         <v>1.2</v>
       </c>
-      <c r="L1" s="10">
+      <c r="K1" s="9">
         <v>1.6</v>
       </c>
-      <c r="M1" s="10">
+      <c r="L1" s="9">
         <v>1.6</v>
       </c>
-      <c r="N1" s="10">
+      <c r="M1" s="9">
         <v>1.6</v>
       </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="10">
+      <c r="C2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="10">
+      <c r="D2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="F2" s="10">
+      <c r="E2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="10">
+      <c r="F2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="10">
+      <c r="G2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="I2" s="10">
+      <c r="H2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="10">
+      <c r="I2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="10">
+      <c r="J2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="L2" s="10">
+      <c r="K2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="10">
+      <c r="L2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="10">
+      <c r="M2" s="9">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="10">
+      <c r="C3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="10">
+      <c r="D3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="F3" s="10">
+      <c r="E3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="10">
+      <c r="F3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="10">
+      <c r="G3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="I3" s="10">
+      <c r="H3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="10">
+      <c r="J3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="L3" s="10">
+      <c r="K3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="10">
+      <c r="L3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="10">
+      <c r="M3" s="9">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="10">
+      <c r="D5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="F5" s="10">
+      <c r="E5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="10">
+      <c r="F5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="10">
+      <c r="G5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="I5" s="10">
+      <c r="H5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="10">
+      <c r="J5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="10">
+      <c r="L5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="N5" s="10">
+      <c r="M5" s="9">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L7" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="L22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2443,9 +2285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2470,14 +2310,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2488,7 +2328,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2505,7 +2345,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2566,9 +2406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2592,14 +2430,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2627,7 +2465,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2644,7 +2482,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2694,7 +2532,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -2706,7 +2544,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A8" sqref="A8:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2716,22 +2554,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2752,7 +2590,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
@@ -2760,7 +2598,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -2768,7 +2606,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>1000000</v>
@@ -2776,57 +2614,57 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="8">
         <v>0.4</v>
       </c>
       <c r="C13">
@@ -2840,21 +2678,21 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
+      <c r="A14" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7">
         <v>3</v>
       </c>
       <c r="C15">
@@ -2862,10 +2700,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16">
@@ -2873,8 +2711,8 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>30</v>
+      <c r="A17" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2953,19 +2791,22 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
+      <c r="A1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2973,7 +2814,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3002,373 +2843,358 @@
       <c r="A17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-9.9586722775879516E-2</v>
       </c>
       <c r="D2">
-        <v>-9.9586722775879516E-2</v>
+        <v>-0.19633754171004664</v>
       </c>
       <c r="E2">
-        <v>-0.19633754171004664</v>
+        <v>-0.29014543718236008</v>
       </c>
       <c r="F2">
-        <v>-0.29014543718236008</v>
+        <v>-0.38091295665354752</v>
       </c>
       <c r="G2">
-        <v>-0.38091295665354752</v>
+        <v>-0.4685509223147255</v>
       </c>
       <c r="H2">
-        <v>-0.4685509223147255</v>
+        <v>-0.55298282471572291</v>
       </c>
       <c r="I2">
-        <v>-0.55298282471572291</v>
+        <v>-0.63414330106467476</v>
       </c>
       <c r="J2">
-        <v>-0.63414330106467476</v>
+        <v>-0.71198201559257546</v>
       </c>
       <c r="K2">
-        <v>-0.71198201559257546</v>
+        <v>-0.78646195687952403</v>
       </c>
       <c r="L2">
-        <v>-0.78646195687952403</v>
+        <v>-0.85756263699544744</v>
       </c>
       <c r="M2">
-        <v>-0.85756263699544744</v>
+        <v>-0.92527807909141258</v>
       </c>
       <c r="N2">
-        <v>-0.92527807909141258</v>
+        <v>-0.98961923024729015</v>
       </c>
       <c r="O2">
-        <v>-0.98961923024729015</v>
+        <v>-1.0506115812927099</v>
       </c>
       <c r="P2">
-        <v>-1.0506115812927099</v>
+        <v>-1.108296777124018</v>
       </c>
       <c r="Q2">
-        <v>-1.108296777124018</v>
+        <v>-1.1627298969014901</v>
       </c>
       <c r="R2">
-        <v>-1.1627298969014901</v>
+        <v>-1.2139803387799586</v>
       </c>
       <c r="S2">
-        <v>-1.2139803387799586</v>
+        <v>-1.2621288673113933</v>
       </c>
       <c r="T2">
-        <v>-1.2621288673113933</v>
+        <v>-1.3072679238492553</v>
       </c>
       <c r="U2">
-        <v>-1.3072679238492553</v>
+        <v>-1.3494985991140291</v>
       </c>
       <c r="V2">
-        <v>-1.3494985991140291</v>
-      </c>
-      <c r="W2">
         <v>-1.3889304867107377</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-6.2413587197453248E-2</v>
       </c>
       <c r="D3">
-        <v>-6.2413587197453248E-2</v>
+        <v>-0.12151927115115595</v>
       </c>
       <c r="E3">
-        <v>-0.12151927115115595</v>
+        <v>-0.17736485899855842</v>
       </c>
       <c r="F3">
-        <v>-0.17736485899855842</v>
+        <v>-0.23001268784032192</v>
       </c>
       <c r="G3">
-        <v>-0.23001268784032192</v>
+        <v>-0.2795368984816623</v>
       </c>
       <c r="H3">
-        <v>-0.2795368984816623</v>
+        <v>-0.32602386241431802</v>
       </c>
       <c r="I3">
-        <v>-0.32602386241431802</v>
+        <v>-0.36956920635579382</v>
       </c>
       <c r="J3">
-        <v>-0.36956920635579382</v>
+        <v>-0.41027781486310122</v>
       </c>
       <c r="K3">
-        <v>-0.41027781486310122</v>
+        <v>-0.44826090813062336</v>
       </c>
       <c r="L3">
-        <v>-0.44826090813062336</v>
+        <v>-0.48363581026642022</v>
       </c>
       <c r="M3">
-        <v>-0.48363581026642022</v>
+        <v>-0.51652323549784629</v>
       </c>
       <c r="N3">
-        <v>-0.51652323549784629</v>
+        <v>-0.54704698849340705</v>
       </c>
       <c r="O3">
-        <v>-0.54704698849340705</v>
+        <v>-0.57533157523989009</v>
       </c>
       <c r="P3">
-        <v>-0.57533157523989009</v>
+        <v>-0.60150195763077663</v>
       </c>
       <c r="Q3">
-        <v>-0.60150195763077663</v>
+        <v>-0.62568155471049858</v>
       </c>
       <c r="R3">
-        <v>-0.62568155471049858</v>
+        <v>-0.64799212351358126</v>
       </c>
       <c r="S3">
-        <v>-0.64799212351358126</v>
+        <v>-0.66855216736124456</v>
       </c>
       <c r="T3">
-        <v>-0.66855216736124456</v>
+        <v>-0.68747697007172992</v>
       </c>
       <c r="U3">
-        <v>-0.68747697007172992</v>
+        <v>-0.7048773892850273</v>
       </c>
       <c r="V3">
-        <v>-0.7048773892850273</v>
-      </c>
-      <c r="W3">
         <v>-0.72086000898109037</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>7.9643793708530364E-2</v>
       </c>
       <c r="D4">
-        <v>7.9643793708530364E-2</v>
+        <v>0.14802283055694987</v>
       </c>
       <c r="E4">
-        <v>0.14802283055694987</v>
+        <v>0.20710872352492637</v>
       </c>
       <c r="F4">
-        <v>0.20710872352492637</v>
+        <v>0.25843091292746978</v>
       </c>
       <c r="G4">
-        <v>0.25843091292746978</v>
+        <v>0.30319825247206722</v>
       </c>
       <c r="H4">
-        <v>0.30319825247206722</v>
+        <v>0.34238334515746471</v>
       </c>
       <c r="I4">
-        <v>0.34238334515746471</v>
+        <v>0.37677892116112621</v>
       </c>
       <c r="J4">
-        <v>0.37677892116112621</v>
+        <v>0.40703998398771801</v>
       </c>
       <c r="K4">
-        <v>0.40703998398771801</v>
+        <v>0.43371267977415151</v>
       </c>
       <c r="L4">
-        <v>0.43371267977415151</v>
+        <v>0.45725738321432507</v>
       </c>
       <c r="M4">
-        <v>0.45725738321432507</v>
+        <v>0.47806461748314122</v>
       </c>
       <c r="N4">
-        <v>0.47806461748314122</v>
+        <v>0.49646864821739645</v>
       </c>
       <c r="O4">
-        <v>0.49646864821739645</v>
+        <v>0.51275678669723779</v>
       </c>
       <c r="P4">
-        <v>0.51275678669723779</v>
+        <v>0.52717787767834501</v>
       </c>
       <c r="Q4">
-        <v>0.52717787767834501</v>
+        <v>0.5399479965959415</v>
       </c>
       <c r="R4">
-        <v>0.5399479965959415</v>
+        <v>0.55125601182804185</v>
       </c>
       <c r="S4">
-        <v>0.55125601182804185</v>
+        <v>0.56126721207657515</v>
       </c>
       <c r="T4">
-        <v>0.56126721207657515</v>
+        <v>0.57012710158202418</v>
       </c>
       <c r="U4">
-        <v>0.57012710158202418</v>
+        <v>0.57796378759864597</v>
       </c>
       <c r="V4">
-        <v>0.57796378759864597</v>
-      </c>
-      <c r="W4">
         <v>0.58489064211086061</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-7.5473425669918368E-2</v>
       </c>
       <c r="D5">
-        <v>-7.5473425669918368E-2</v>
+        <v>-0.15068226240200472</v>
       </c>
       <c r="E5">
-        <v>-0.15068226240200472</v>
+        <v>-0.22548770547612343</v>
       </c>
       <c r="F5">
-        <v>-0.22548770547612343</v>
+        <v>-0.29974610714086253</v>
       </c>
       <c r="G5">
-        <v>-0.29974610714086253</v>
+        <v>-0.37331279696288466</v>
       </c>
       <c r="H5">
-        <v>-0.37331279696288466</v>
+        <v>-0.44604380509486202</v>
       </c>
       <c r="I5">
-        <v>-0.44604380509486202</v>
+        <v>-0.51779846562317167</v>
       </c>
       <c r="J5">
-        <v>-0.51779846562317167</v>
+        <v>-0.58844044202043222</v>
       </c>
       <c r="K5">
-        <v>-0.58844044202043222</v>
+        <v>-0.65783947259958364</v>
       </c>
       <c r="L5">
-        <v>-0.65783947259958364</v>
+        <v>-0.72587204261678895</v>
       </c>
       <c r="M5">
-        <v>-0.72587204261678895</v>
+        <v>-0.79242256435097747</v>
       </c>
       <c r="N5">
-        <v>-0.79242256435097747</v>
+        <v>-0.85738388720255121</v>
       </c>
       <c r="O5">
-        <v>-0.85738388720255121</v>
+        <v>-0.92065807944774458</v>
       </c>
       <c r="P5">
-        <v>-0.92065807944774458</v>
+        <v>-0.98215685152812104</v>
       </c>
       <c r="Q5">
-        <v>-0.98215685152812104</v>
+        <v>-1.0418020182973311</v>
       </c>
       <c r="R5">
-        <v>-1.0418020182973311</v>
+        <v>-1.0995258394240877</v>
       </c>
       <c r="S5">
-        <v>-1.0995258394240877</v>
+        <v>-1.1552711904652875</v>
       </c>
       <c r="T5">
-        <v>-1.1552711904652875</v>
+        <v>-1.2089917912513419</v>
       </c>
       <c r="U5">
-        <v>-1.2089917912513419</v>
+        <v>-1.2606520941371557</v>
       </c>
       <c r="V5">
-        <v>-1.2606520941371557</v>
-      </c>
-      <c r="W5">
         <v>-1.3102273521181622</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>threshold_b</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -808,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -2543,8 +2546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2622,10 +2625,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>degradation_rate</t>
   </si>
   <si>
-    <t>regulators/controllers</t>
-  </si>
-  <si>
     <t>estimate_params</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>targets/regulators</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1377,7 @@
         <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1421,13 +1421,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2314,7 +2314,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2434,7 +2434,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2546,7 +2546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2794,17 +2794,17 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
   <si>
     <t>CIN5</t>
   </si>
@@ -147,10 +147,13 @@
     <t>threshold_b</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -172,6 +175,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -181,6 +185,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1421,13 +1426,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2314,7 +2321,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2434,7 +2441,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2544,10 +2551,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2624,160 +2631,168 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>38</v>
+      <c r="A8" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>34</v>
-      </c>
       <c r="B10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>16</v>
-      </c>
       <c r="B12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B14" s="8">
         <v>0.4</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.8</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1.2</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O18">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T18">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>2</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -117,12 +117,6 @@
     <t>Gene</t>
   </si>
   <si>
-    <t>wt SSE</t>
-  </si>
-  <si>
-    <t>dcin5 SSE</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>L_curve</t>
+  </si>
+  <si>
+    <t>wt MSE</t>
+  </si>
+  <si>
+    <t>dcin5 MSE</t>
   </si>
 </sst>
 </file>
@@ -667,10 +667,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1179,7 +1179,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1279,7 +1279,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1379,10 +1379,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1434,7 +1434,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1582,10 +1582,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1654,10 +1654,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1780,7 +1780,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -2032,7 +2032,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2321,7 +2321,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2441,7 +2441,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2553,7 +2553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="9" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="8">
         <v>0</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2816,10 +2816,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2878,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\r\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19440" windowHeight="15600" tabRatio="644" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -70,9 +75,6 @@
   </si>
   <si>
     <t>Strain</t>
-  </si>
-  <si>
-    <t>Deletion</t>
   </si>
   <si>
     <t>wt</t>
@@ -326,6 +328,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -667,10 +672,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -824,7 +829,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1179,7 +1184,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1279,7 +1284,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1379,10 +1384,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1434,7 +1439,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1526,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1534,15 +1539,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>2.4245379460230896E-5</v>
@@ -1550,7 +1555,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>0.23282684076036597</v>
@@ -1558,7 +1563,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1566,7 +1571,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>541</v>
@@ -1574,18 +1579,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1654,10 +1659,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1780,7 +1785,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -2032,7 +2037,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2321,7 +2326,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2441,7 +2446,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2551,10 +2556,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2562,27 +2567,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2590,7 +2583,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2598,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2606,7 +2599,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2614,7 +2607,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2622,7 +2615,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2630,57 +2623,57 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="B9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2695,20 +2688,20 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
@@ -2719,80 +2712,69 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
+        <v>33</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D18">
+      <c r="D17">
         <v>0.2</v>
       </c>
-      <c r="E18">
+      <c r="E17">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F18">
+      <c r="F17">
         <v>0.4</v>
       </c>
-      <c r="G18">
+      <c r="G17">
         <v>0.5</v>
       </c>
-      <c r="H18">
+      <c r="H17">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I18">
+      <c r="I17">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J18">
+      <c r="J17">
         <v>0.8</v>
       </c>
-      <c r="K18">
+      <c r="K17">
         <v>0.9</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N18">
+      <c r="N17">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O18">
+      <c r="O17">
         <v>1.3</v>
       </c>
-      <c r="P18">
+      <c r="P17">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q18">
+      <c r="Q17">
         <v>1.5</v>
       </c>
-      <c r="R18">
+      <c r="R17">
         <v>1.6</v>
       </c>
-      <c r="S18">
+      <c r="S17">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T18">
+      <c r="T17">
         <v>1.8</v>
       </c>
-      <c r="U18">
+      <c r="U17">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V18">
+      <c r="V17">
         <v>2</v>
       </c>
     </row>
@@ -2816,10 +2798,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2878,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-0_fixP-1_no-graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="644" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25358" windowHeight="15278" tabRatio="644" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -26,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" fullPrecision="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -161,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -237,8 +242,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,20 +647,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -663,7 +668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -671,7 +676,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -679,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -688,7 +693,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -697,54 +702,54 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
     </row>
   </sheetData>
@@ -761,19 +766,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -841,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -849,67 +854,67 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>-9.9586722775879516E-2</v>
+        <v>-9.9586722775879502E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.19633754171004664</v>
+        <v>-0.196337541710047</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.29014543718236008</v>
+        <v>-0.29014543718236002</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.38091295665354752</v>
+        <v>-0.38091295665354802</v>
       </c>
       <c r="G2" s="2">
-        <v>-0.4685509223147255</v>
+        <v>-0.468550922314726</v>
       </c>
       <c r="H2" s="2">
-        <v>-0.55298282471572291</v>
+        <v>-0.55298282471572302</v>
       </c>
       <c r="I2" s="2">
-        <v>-0.63414330106467476</v>
+        <v>-0.63414330106467498</v>
       </c>
       <c r="J2" s="2">
-        <v>-0.71198201559257546</v>
+        <v>-0.71198201559257501</v>
       </c>
       <c r="K2" s="2">
         <v>-0.78646195687952403</v>
       </c>
       <c r="L2" s="2">
-        <v>-0.85756263699544744</v>
+        <v>-0.85756263699544699</v>
       </c>
       <c r="M2" s="2">
-        <v>-0.92527807909141258</v>
+        <v>-0.92527807909141302</v>
       </c>
       <c r="N2" s="2">
-        <v>-0.98961923024729015</v>
+        <v>-0.98961923024729004</v>
       </c>
       <c r="O2" s="2">
         <v>-1.0506115812927099</v>
       </c>
       <c r="P2" s="2">
-        <v>-1.108296777124018</v>
+        <v>-1.10829677712402</v>
       </c>
       <c r="Q2" s="2">
         <v>-1.1627298969014901</v>
       </c>
       <c r="R2" s="2">
-        <v>-1.2139803387799586</v>
+        <v>-1.2139803387799599</v>
       </c>
       <c r="S2" s="2">
-        <v>-1.2621288673113933</v>
+        <v>-1.26212886731139</v>
       </c>
       <c r="T2" s="2">
-        <v>-1.3072679238492553</v>
+        <v>-1.3072679238492599</v>
       </c>
       <c r="U2" s="2">
-        <v>-1.3494985991140291</v>
+        <v>-1.34949859911403</v>
       </c>
       <c r="V2" s="2">
-        <v>-1.3889304867107377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.3889304867107399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -917,67 +922,67 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>-6.2413587197453248E-2</v>
+        <v>-6.2413587197453199E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.12151927115115595</v>
+        <v>-0.121519271151156</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.17736485899855842</v>
+        <v>-0.177364858998558</v>
       </c>
       <c r="F3" s="2">
-        <v>-0.23001268784032192</v>
+        <v>-0.230012687840322</v>
       </c>
       <c r="G3" s="2">
-        <v>-0.2795368984816623</v>
+        <v>-0.27953689848166202</v>
       </c>
       <c r="H3" s="2">
         <v>-0.32602386241431802</v>
       </c>
       <c r="I3" s="2">
-        <v>-0.36956920635579382</v>
+        <v>-0.36956920635579399</v>
       </c>
       <c r="J3" s="2">
-        <v>-0.41027781486310122</v>
+        <v>-0.410277814863101</v>
       </c>
       <c r="K3" s="2">
-        <v>-0.44826090813062336</v>
+        <v>-0.44826090813062303</v>
       </c>
       <c r="L3" s="2">
-        <v>-0.48363581026642022</v>
+        <v>-0.48363581026642</v>
       </c>
       <c r="M3" s="2">
-        <v>-0.51652323549784629</v>
+        <v>-0.51652323549784596</v>
       </c>
       <c r="N3" s="2">
         <v>-0.54704698849340705</v>
       </c>
       <c r="O3" s="2">
-        <v>-0.57533157523989009</v>
+        <v>-0.57533157523988998</v>
       </c>
       <c r="P3" s="2">
-        <v>-0.60150195763077663</v>
+        <v>-0.60150195763077696</v>
       </c>
       <c r="Q3" s="2">
-        <v>-0.62568155471049858</v>
+        <v>-0.62568155471049902</v>
       </c>
       <c r="R3" s="2">
-        <v>-0.64799212351358126</v>
+        <v>-0.64799212351358104</v>
       </c>
       <c r="S3" s="2">
-        <v>-0.66855216736124456</v>
+        <v>-0.66855216736124501</v>
       </c>
       <c r="T3" s="2">
-        <v>-0.68747697007172992</v>
+        <v>-0.68747697007173003</v>
       </c>
       <c r="U3" s="2">
-        <v>-0.7048773892850273</v>
+        <v>-0.70487738928502697</v>
       </c>
       <c r="V3" s="2">
-        <v>-0.72086000898109037</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>-0.72086000898109004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1053,64 +1058,64 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>-3.9440636416406563E-2</v>
+        <v>-3.9440636416406598E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>-7.6586814094669872E-2</v>
+        <v>-7.65868140946699E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>-0.11152059199862549</v>
+        <v>-0.111520591998625</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.14432735392047477</v>
+        <v>-0.14432735392047499</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.1750944066823639</v>
+        <v>-0.17509440668236401</v>
       </c>
       <c r="H5" s="2">
-        <v>-0.20391088537489302</v>
+        <v>-0.20391088537489299</v>
       </c>
       <c r="I5" s="2">
-        <v>-0.23086644134415116</v>
+        <v>-0.23086644134415099</v>
       </c>
       <c r="J5" s="2">
-        <v>-0.25605114394250705</v>
+        <v>-0.256051143942507</v>
       </c>
       <c r="K5" s="2">
-        <v>-0.27955434478575264</v>
+        <v>-0.27955434478575297</v>
       </c>
       <c r="L5" s="2">
-        <v>-0.30146461729766305</v>
+        <v>-0.301464617297663</v>
       </c>
       <c r="M5" s="2">
-        <v>-0.32186881181168131</v>
+        <v>-0.32186881181168098</v>
       </c>
       <c r="N5" s="2">
-        <v>-0.34085205524821444</v>
+        <v>-0.34085205524821399</v>
       </c>
       <c r="O5" s="2">
-        <v>-0.35849699526816176</v>
+        <v>-0.35849699526816198</v>
       </c>
       <c r="P5" s="2">
-        <v>-0.37488386688012326</v>
+        <v>-0.37488386688012298</v>
       </c>
       <c r="Q5" s="2">
-        <v>-0.3900899116602588</v>
+        <v>-0.39008991166025903</v>
       </c>
       <c r="R5" s="2">
-        <v>-0.4041895070119863</v>
+        <v>-0.40418950701198603</v>
       </c>
       <c r="S5" s="2">
         <v>-0.41725373888115302</v>
       </c>
       <c r="T5" s="2">
-        <v>-0.42935058273298954</v>
+        <v>-0.42935058273298998</v>
       </c>
       <c r="U5" s="2">
-        <v>-0.44054460473448531</v>
+        <v>-0.44054460473448498</v>
       </c>
       <c r="V5" s="2">
-        <v>-0.45089716923502737</v>
+        <v>-0.45089716923502698</v>
       </c>
     </row>
   </sheetData>
@@ -1124,19 +1129,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1153,15 +1158,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1170,12 +1175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -1187,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1232,19 +1237,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1261,15 +1266,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1278,12 +1283,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -1295,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1340,19 +1345,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1360,36 +1365,36 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>-0.15315489654471839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.15315489654471801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>-8.5865772068814517E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>-8.5865772068814503E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>-0.45176860342189396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.45176860342189401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>-0.27377176566628469</v>
+        <v>-0.27377176566628503</v>
       </c>
     </row>
   </sheetData>
@@ -1403,19 +1408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1432,12 +1437,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>0.25352994651756744</v>
+        <v>0.253529946517567</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1449,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>0.13839383724466231</v>
+        <v>0.138393837244662</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -1466,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1477,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0.42259190853563411</v>
+        <v>0.422591908535634</v>
       </c>
       <c r="E4" s="2">
-        <v>0.50150779523599143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.50150779523599098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1494,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>-1.0320209241203737</v>
+        <v>-1.0320209241203699</v>
       </c>
       <c r="E5" s="2">
-        <v>0.66317549570851264</v>
+        <v>0.66317549570851297</v>
       </c>
     </row>
   </sheetData>
@@ -1511,19 +1516,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1531,31 +1536,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2">
-        <v>2.4245379460230896E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>2.4245379460230899E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>0.23282684076036597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.232826840760366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="2">
-        <v>1.2133358649639586E-33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1.2133358649639599E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1563,12 +1568,12 @@
         <v>541</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1579,45 +1584,45 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>1.8929100349110884E-4</v>
+        <v>1.89291003491109E-4</v>
       </c>
       <c r="C8" s="2">
-        <v>3.7858200698221773E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>3.78582006982218E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>4.1799260893231075E-5</v>
+        <v>4.1799260893231102E-5</v>
       </c>
       <c r="C9" s="2">
-        <v>8.3598521786462163E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>8.3598521786462204E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>8.7220400150689326E-4</v>
+        <v>8.7220400150689304E-4</v>
       </c>
       <c r="C10" s="2">
-        <v>8.7220400150689326E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>8.7220400150689304E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>7.7282870315040447E-4</v>
+        <v>7.7282870315040404E-4</v>
       </c>
       <c r="C11" s="2">
         <v>9.9317189790659299E-4</v>
@@ -1634,21 +1639,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1656,7 +1661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1664,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1672,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1688,43 +1693,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
@@ -1741,19 +1746,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="10.5703125" style="2"/>
+    <col min="1" max="16384" width="10.5859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1776,10 +1781,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -1795,195 +1800,195 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="6">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.54159993841241605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="6">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-1.1097262320569601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F6" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I10" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F12" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="H18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E20" s="3"/>
       <c r="L20" s="3"/>
     </row>
@@ -2001,19 +2006,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2036,10 +2041,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -2055,89 +2060,89 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2178,92 +2183,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="6">
-        <v>-0.40259011361710589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-0.402590113617106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K7" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
     </row>
-    <row r="18" spans="6:13">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="6:13">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="6:13">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="22" spans="6:13">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.35">
       <c r="K22" s="3"/>
       <c r="M22" s="3"/>
     </row>
@@ -2280,34 +2285,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.41015625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2324,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2341,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2358,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2375,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2406,34 +2411,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.87890625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="2"/>
+    <col min="8" max="8" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2467,7 +2472,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2484,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2501,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2549,20 +2554,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="21.1171875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2570,7 +2575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2586,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2594,7 +2599,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2610,7 +2615,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2618,7 +2623,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -2626,7 +2631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2634,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2642,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2658,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1">
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1">
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2694,7 +2699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -2708,7 +2713,7 @@
         <v>0.2</v>
       </c>
       <c r="E16" s="2">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16" s="2">
         <v>0.4</v>
@@ -2717,10 +2722,10 @@
         <v>0.5</v>
       </c>
       <c r="H16" s="2">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16" s="2">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16" s="2">
         <v>0.8</v>
@@ -2735,13 +2740,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16" s="2">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16" s="2">
         <v>1.3</v>
       </c>
       <c r="P16" s="2">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" s="2">
         <v>1.5</v>
@@ -2750,13 +2755,13 @@
         <v>1.6</v>
       </c>
       <c r="S16" s="2">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16" s="2">
         <v>1.8</v>
       </c>
       <c r="U16" s="2">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16" s="2">
         <v>2</v>
@@ -2776,19 +2781,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2796,7 +2801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2804,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2812,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2820,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2828,10 +2833,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
     </row>
   </sheetData>
@@ -2846,19 +2851,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="16384" width="8.703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2926,7 +2931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2934,67 +2939,67 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>-9.9586722775879516E-2</v>
+        <v>-9.9586722775879502E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.19633754171004664</v>
+        <v>-0.196337541710047</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.29014543718236008</v>
+        <v>-0.29014543718236002</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.38091295665354752</v>
+        <v>-0.38091295665354802</v>
       </c>
       <c r="G2" s="2">
-        <v>-0.4685509223147255</v>
+        <v>-0.468550922314726</v>
       </c>
       <c r="H2" s="2">
-        <v>-0.55298282471572291</v>
+        <v>-0.55298282471572302</v>
       </c>
       <c r="I2" s="2">
-        <v>-0.63414330106467476</v>
+        <v>-0.63414330106467498</v>
       </c>
       <c r="J2" s="2">
-        <v>-0.71198201559257546</v>
+        <v>-0.71198201559257501</v>
       </c>
       <c r="K2" s="2">
         <v>-0.78646195687952403</v>
       </c>
       <c r="L2" s="2">
-        <v>-0.85756263699544744</v>
+        <v>-0.85756263699544699</v>
       </c>
       <c r="M2" s="2">
-        <v>-0.92527807909141258</v>
+        <v>-0.92527807909141302</v>
       </c>
       <c r="N2" s="2">
-        <v>-0.98961923024729015</v>
+        <v>-0.98961923024729004</v>
       </c>
       <c r="O2" s="2">
         <v>-1.0506115812927099</v>
       </c>
       <c r="P2" s="2">
-        <v>-1.108296777124018</v>
+        <v>-1.10829677712402</v>
       </c>
       <c r="Q2" s="2">
         <v>-1.1627298969014901</v>
       </c>
       <c r="R2" s="2">
-        <v>-1.2139803387799586</v>
+        <v>-1.2139803387799599</v>
       </c>
       <c r="S2" s="2">
-        <v>-1.2621288673113933</v>
+        <v>-1.26212886731139</v>
       </c>
       <c r="T2" s="2">
-        <v>-1.3072679238492553</v>
+        <v>-1.3072679238492599</v>
       </c>
       <c r="U2" s="2">
-        <v>-1.3494985991140291</v>
+        <v>-1.34949859911403</v>
       </c>
       <c r="V2" s="2">
-        <v>-1.3889304867107377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.3889304867107399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3002,67 +3007,67 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>-6.2413587197453248E-2</v>
+        <v>-6.2413587197453199E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.12151927115115595</v>
+        <v>-0.121519271151156</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.17736485899855842</v>
+        <v>-0.177364858998558</v>
       </c>
       <c r="F3" s="2">
-        <v>-0.23001268784032192</v>
+        <v>-0.230012687840322</v>
       </c>
       <c r="G3" s="2">
-        <v>-0.2795368984816623</v>
+        <v>-0.27953689848166202</v>
       </c>
       <c r="H3" s="2">
         <v>-0.32602386241431802</v>
       </c>
       <c r="I3" s="2">
-        <v>-0.36956920635579382</v>
+        <v>-0.36956920635579399</v>
       </c>
       <c r="J3" s="2">
-        <v>-0.41027781486310122</v>
+        <v>-0.410277814863101</v>
       </c>
       <c r="K3" s="2">
-        <v>-0.44826090813062336</v>
+        <v>-0.44826090813062303</v>
       </c>
       <c r="L3" s="2">
-        <v>-0.48363581026642022</v>
+        <v>-0.48363581026642</v>
       </c>
       <c r="M3" s="2">
-        <v>-0.51652323549784629</v>
+        <v>-0.51652323549784596</v>
       </c>
       <c r="N3" s="2">
         <v>-0.54704698849340705</v>
       </c>
       <c r="O3" s="2">
-        <v>-0.57533157523989009</v>
+        <v>-0.57533157523988998</v>
       </c>
       <c r="P3" s="2">
-        <v>-0.60150195763077663</v>
+        <v>-0.60150195763077696</v>
       </c>
       <c r="Q3" s="2">
-        <v>-0.62568155471049858</v>
+        <v>-0.62568155471049902</v>
       </c>
       <c r="R3" s="2">
-        <v>-0.64799212351358126</v>
+        <v>-0.64799212351358104</v>
       </c>
       <c r="S3" s="2">
-        <v>-0.66855216736124456</v>
+        <v>-0.66855216736124501</v>
       </c>
       <c r="T3" s="2">
-        <v>-0.68747697007172992</v>
+        <v>-0.68747697007173003</v>
       </c>
       <c r="U3" s="2">
-        <v>-0.7048773892850273</v>
+        <v>-0.70487738928502697</v>
       </c>
       <c r="V3" s="2">
-        <v>-0.72086000898109037</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>-0.72086000898109004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3070,67 +3075,67 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>7.9643793708530364E-2</v>
+        <v>7.9643793708530405E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.14802283055694987</v>
+        <v>0.14802283055695001</v>
       </c>
       <c r="E4" s="2">
-        <v>0.20710872352492637</v>
+        <v>0.20710872352492599</v>
       </c>
       <c r="F4" s="2">
-        <v>0.25843091292746978</v>
+        <v>0.25843091292747</v>
       </c>
       <c r="G4" s="2">
-        <v>0.30319825247206722</v>
+        <v>0.303198252472067</v>
       </c>
       <c r="H4" s="2">
-        <v>0.34238334515746471</v>
+        <v>0.34238334515746499</v>
       </c>
       <c r="I4" s="2">
-        <v>0.37677892116112621</v>
+        <v>0.37677892116112599</v>
       </c>
       <c r="J4" s="2">
         <v>0.40703998398771801</v>
       </c>
       <c r="K4" s="2">
-        <v>0.43371267977415151</v>
+        <v>0.43371267977415201</v>
       </c>
       <c r="L4" s="2">
-        <v>0.45725738321432507</v>
+        <v>0.45725738321432502</v>
       </c>
       <c r="M4" s="2">
-        <v>0.47806461748314122</v>
+        <v>0.478064617483141</v>
       </c>
       <c r="N4" s="2">
-        <v>0.49646864821739645</v>
+        <v>0.496468648217396</v>
       </c>
       <c r="O4" s="2">
-        <v>0.51275678669723779</v>
+        <v>0.51275678669723801</v>
       </c>
       <c r="P4" s="2">
         <v>0.52717787767834501</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.5399479965959415</v>
+        <v>0.53994799659594195</v>
       </c>
       <c r="R4" s="2">
-        <v>0.55125601182804185</v>
+        <v>0.55125601182804196</v>
       </c>
       <c r="S4" s="2">
-        <v>0.56126721207657515</v>
+        <v>0.56126721207657504</v>
       </c>
       <c r="T4" s="2">
-        <v>0.57012710158202418</v>
+        <v>0.57012710158202395</v>
       </c>
       <c r="U4" s="2">
         <v>0.57796378759864597</v>
       </c>
       <c r="V4" s="2">
-        <v>0.58489064211086061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>0.58489064211086095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3138,64 +3143,64 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>-7.5473425669918368E-2</v>
+        <v>-7.5473425669918395E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.15068226240200472</v>
+        <v>-0.150682262402005</v>
       </c>
       <c r="E5" s="2">
-        <v>-0.22548770547612343</v>
+        <v>-0.22548770547612301</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.29974610714086253</v>
+        <v>-0.29974610714086303</v>
       </c>
       <c r="G5" s="2">
-        <v>-0.37331279696288466</v>
+        <v>-0.373312796962885</v>
       </c>
       <c r="H5" s="2">
         <v>-0.44604380509486202</v>
       </c>
       <c r="I5" s="2">
-        <v>-0.51779846562317167</v>
+        <v>-0.517798465623172</v>
       </c>
       <c r="J5" s="2">
-        <v>-0.58844044202043222</v>
+        <v>-0.588440442020432</v>
       </c>
       <c r="K5" s="2">
-        <v>-0.65783947259958364</v>
+        <v>-0.65783947259958397</v>
       </c>
       <c r="L5" s="2">
         <v>-0.72587204261678895</v>
       </c>
       <c r="M5" s="2">
-        <v>-0.79242256435097747</v>
+        <v>-0.79242256435097702</v>
       </c>
       <c r="N5" s="2">
-        <v>-0.85738388720255121</v>
+        <v>-0.85738388720255099</v>
       </c>
       <c r="O5" s="2">
-        <v>-0.92065807944774458</v>
+        <v>-0.92065807944774503</v>
       </c>
       <c r="P5" s="2">
         <v>-0.98215685152812104</v>
       </c>
       <c r="Q5" s="2">
-        <v>-1.0418020182973311</v>
+        <v>-1.04180201829733</v>
       </c>
       <c r="R5" s="2">
-        <v>-1.0995258394240877</v>
+        <v>-1.0995258394240901</v>
       </c>
       <c r="S5" s="2">
-        <v>-1.1552711904652875</v>
+        <v>-1.1552711904652899</v>
       </c>
       <c r="T5" s="2">
-        <v>-1.2089917912513419</v>
+        <v>-1.2089917912513399</v>
       </c>
       <c r="U5" s="2">
-        <v>-1.2606520941371557</v>
+        <v>-1.26065209413716</v>
       </c>
       <c r="V5" s="2">
-        <v>-1.3102273521181622</v>
+        <v>-1.31022735211816</v>
       </c>
     </row>
   </sheetData>
